--- a/2-Working-With-Data/06-non-relational/CocaColaCo.xlsx
+++ b/2-Working-With-Data/06-non-relational/CocaColaCo.xlsx
@@ -1,33 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasmineg\projects\Data-Science-For-Beginners\2-Working-With-Data\06-non-relational\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291207B9-196B-4B03-8D34-EB4EEEE77362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="COCA COLA CO" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="COCA COLA CO"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -70,44 +52,45 @@
     <t>FY '18</t>
   </si>
   <si>
+    <t>Net operating revenues</t>
+  </si>
+  <si>
     <t>Cost of goods sold</t>
   </si>
   <si>
     <t>Gross Profit</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Average Gross Profit from FY '09 TO FY '18</t>
-  </si>
-  <si>
-    <t>Put Formula Here</t>
-  </si>
-  <si>
-    <t>Net operating revenues</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -116,25 +99,23 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -152,32 +133,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+  <cellXfs count="13">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -188,10 +193,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -229,71 +234,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -317,54 +322,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -374,7 +378,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -383,7 +387,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -392,7 +396,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -400,10 +404,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -432,7 +436,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -445,13 +449,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -469,134 +472,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="134.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="11" width="2.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="12" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="12" width="11.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="7">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4">
         <v>30990</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>35119</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>46542</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>48017</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>46854</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>45998</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>44294</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>41863</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>35410</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>31856</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4">
         <v>11088</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>12693</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>18215</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>19053</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>18421</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>17889</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>17482</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>16465</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>13255</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>11770</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>13</v>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="6">
         <v>19902</v>
@@ -615,24 +656,59 @@
       </c>
       <c r="H6" s="6">
         <f>H4-H5</f>
-        <v>28109</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      </c>
+      <c r="I6" s="7">
+        <f>i4-i5</f>
+      </c>
+      <c r="J6" s="7">
+        <f>J4-J5</f>
+      </c>
+      <c r="K6" s="7">
+        <f>K4-K5</f>
+      </c>
+      <c r="L6" s="7">
+        <f>L4-L5</f>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="10">
+        <f>average(c6:L6)</f>
+      </c>
+      <c r="D8" s="2">
+        <f>sum(c6:l6)</f>
+      </c>
+      <c r="E8" s="2">
+        <f>d8/10</f>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>